--- a/docs/checklist.xlsx
+++ b/docs/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\a a Vi mach co ban\a VNChip\lab\final project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7940427C-6134-42D9-9CDB-48BA305C3D0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8055AA-195F-4310-BA12-53BBE553E01A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{2A217799-7890-4C16-AD45-C229C041ED31}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="257">
   <si>
     <t>ID</t>
   </si>
@@ -1189,6 +1189,260 @@
   </si>
   <si>
     <t>Command mode with DMA</t>
+  </si>
+  <si>
+    <t>Command mode (with DMA)</t>
+  </si>
+  <si>
+    <t>mem[0] = 32'hFFFF_FFFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Configure Command Registers
+opcode = 03; addr = 24'h00_0000; dummy = 0
+cmd_lanes - addr_lanes - data_lanes = 1-1-1
+data_length = 4 bytes; dir = 1 (read)
+Write 32'h0000_2040 to CMD_CFG
+Write 32'h0000_0003 to CMD_OP
+Write 32'h0000_0000 to CMD_ADDR
+Write 32'h0000_0004 to CMD_LEN
+2. Configure DMA Registers
+dma_addr = 32'h0000_0000; dma_len = 4, dma_dir = 1 (read)
+Write 32'h0000_0010 to DMA_CFG
+Write 32'h0000_0000 to DMA_ADDR
+Write 32'h0000_0004 to DMA_LEN
+3. Set cmd_trigger
+Write 32'h0000_0300 to CTRL
+4. Wait cmd_done=1 and read axi mem slave
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Configure Command Registers
+opcode = 03; addr = 24'h00_0000; dummy = 0
+cmd_lanes - addr_lanes - data_lanes = 1-1-1
+data_length = 5 bytes; dir = 1 (read)
+Write 32'h0000_2040 to CMD_CFG
+Write 32'h0000_0003 to CMD_OP
+Write 32'h0000_0000 to CMD_ADDR
+Write 32'h0000_0005 to CMD_LEN
+2. Configure DMA Registers
+dma_addr = 32'h0000_0000; dma_len = 5, dma_dir = 1 (read)
+Write 32'h0000_0010 to DMA_CFG
+Write 32'h0000_0000 to DMA_ADDR
+Write 32'h0000_0005 to DMA_LEN
+3. Set cmd_trigger
+Write 32'h0000_0300 to CTRL
+4. Wait cmd_done=1 and read axi mem slave
+</t>
+  </si>
+  <si>
+    <t>0. mem[0] = 32'hFFFF_FFFF
+1. mem[1] = 32'h0000_00FF</t>
+  </si>
+  <si>
+    <t>16 bytes + page program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write to QSPI device
+memory[0] = 32'h1122_3344
+memory[1] = 32'hAABB_CCDD
+memory[2] = 32'h5555_5555
+memory[3] = 32'hA0A0_A0A0
+1. Configure Command Registers
+opcode = 03; addr = 24'h00_0000; dummy = 0
+cmd_lanes - addr_lanes - data_lanes = 1-1-1
+data_length = 4 bytes; dir = 1 (read)
+Write 32'h0000_2040 to CMD_CFG
+Write 32'h0000_0003 to CMD_OP
+Write 32'h0000_0000 to CMD_ADDR
+Write 32'h0000_0004 to CMD_LEN
+2. Configure DMA Registers
+dma_addr = 32'h0000_0000; dma_len = 4, dma_dir = 1 (read)
+Write 32'h0000_0010 to DMA_CFG
+Write 32'h0000_0000 to DMA_ADDR
+Write 32'h0000_0004 to DMA_LEN
+3. Set cmd_trigger
+Write 32'h0000_0300 to CTRL
+4. Wait cmd_done=1 and read axi mem slave
+</t>
+  </si>
+  <si>
+    <t>mem[0] = 32'h1122_3344
+mem[1] = 32'hAABB_CCDD
+mem[2] = 32'h5555_5555
+mem[3] = 32'hA0A0_A0A0</t>
+  </si>
+  <si>
+    <t>Full DMA length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Configure Command Registers
+opcode = 03; addr = 24'h00_0000; dummy = 0
+cmd_lanes - addr_lanes - data_lanes = 1-1-1
+data_length = 65536 bytes; dir = 1 (read)
+Write 32'h0000_2040 to CMD_CFG
+Write 32'h0000_0003 to CMD_OP
+Write 32'h0000_0000 to CMD_ADDR
+Write 32'h0001_0000 to CMD_LEN
+2. Configure DMA Registers
+dma_addr = 32'h0000_0000; dma_len = 65536, dma_dir = 1 (read)
+Write 32'h0000_0010 to DMA_CFG
+Write 32'h0000_0000 to DMA_ADDR
+Write 32'h0001_0000 to DMA_LEN
+3. Set cmd_trigger
+Write 32'h0000_0300 to CTRL
+4. Wait cmd_done=1 and read axi mem slave
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mem[0] = 32'hFFFF_FFFF
+mem[1000] = 32'hFFFF_FFFF
+mem[16383] = 32'hFFFF_FFFF
+</t>
+  </si>
+  <si>
+    <t>1. Configure Command Registers
+opcode = 0B; addr = 24'h00_0000; dummy = 8
+cmd_lanes - addr_lanes - data_lanes = 1-1-1
+data_length = 4 bytes; dir = 1 (read)
+Write 32'h0000_3040 to CMD_CFG
+Write 32'h0000_000B to CMD_OP
+Write 32'h0000_0000 to CMD_ADDR
+Write 32'h0000_0004 to CMD_LEN
+2. Configure DMA Registers
+dma_addr = 32'h0000_0000; dma_len = 4, dma_dir = 1 (read)
+Write 32'h0000_0010 to DMA_CFG
+Write 32'h0000_0000 to DMA_ADDR
+Write 32'h0000_0004 to DMA_LEN
+3. Set cmd_trigger
+Write 32'h0000_0300 to CTRL
+4. Wait cmd_done=1 and read axi mem slave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Configure Command Registers
+opcode = 0B; addr = 24'h00_0000; dummy = 8
+cmd_lanes - addr_lanes - data_lanes = 1-1-1
+data_length = 65536 bytes; dir = 1 (read)
+Write 32'h0000_3040 to CMD_CFG
+Write 32'h0000_000B to CMD_OP
+Write 32'h0000_0000 to CMD_ADDR
+Write 32'h0001_0000 to CMD_LEN
+2. Configure DMA Registers
+dma_addr = 32'h0000_0000; dma_len = 65536, dma_dir = 1 (read)
+Write 32'h0000_0010 to DMA_CFG
+Write 32'h0000_0000 to DMA_ADDR
+Write 32'h0001_0000 to DMA_LEN
+3. Set cmd_trigger
+Write 32'h0000_0300 to CTRL
+4. Wait cmd_done=1 and read axi mem slave
+</t>
+  </si>
+  <si>
+    <t>1. Configure Command Registers
+opcode = BB; addr = 24'h00_0000; dummy = 4
+cmd_lanes - addr_lanes - data_lanes = 1-2-2
+data_length = 4 bytes; dir = 1 (read)
+Write 32'h0000_2854 to CMD_CFG
+Write 32'h0000_00BB to CMD_OP
+Write 32'h0000_0000 to CMD_ADDR
+Write 32'h0000_0004 to CMD_LEN
+2. Configure DMA Registers
+dma_addr = 32'h0000_0000; dma_len = 4, dma_dir = 1 (read)
+Write 32'h0000_0010 to DMA_CFG
+Write 32'h0000_0000 to DMA_ADDR
+Write 32'h0000_0004 to DMA_LEN
+3. Set cmd_trigger
+Write 32'h0000_0300 to CTRL
+4. Wait cmd_done=1 and read axi mem slave</t>
+  </si>
+  <si>
+    <t>1. Configure Command Registers
+opcode = BB; addr = 24'h00_0000; dummy = 4
+cmd_lanes - addr_lanes - data_lanes = 1-2-2
+data_length = 65536 bytes; dir = 1 (read)
+Write 32'h0000_2854 to CMD_CFG
+Write 32'h0000_00BB to CMD_OP
+Write 32'h0000_0000 to CMD_ADDR
+Write 32'h0001_0000 to CMD_LEN
+2. Configure DMA Registers
+dma_addr = 32'h0000_0000; dma_len = 65536, dma_dir = 1 (read)
+Write 32'h0000_0010 to DMA_CFG
+Write 32'h0000_0000 to DMA_ADDR
+Write 32'h0001_0000 to DMA_LEN
+3. Set cmd_trigger
+Write 32'h0000_0300 to CTRL
+4. Wait cmd_done=1 and read axi mem slave</t>
+  </si>
+  <si>
+    <t>1. Configure Command Registers
+opcode = 6B; addr = 24'h00_0000; dummy = 8
+cmd_lanes - addr_lanes - data_lanes = 1-1-4
+data_length = 4 bytes; dir = 1 (read)
+Write 32'h0000_3060 to CMD_CFG
+Write 32'h0000_006B to CMD_OP
+Write 32'h0000_0000 to CMD_ADDR
+Write 32'h0000_0004 to CMD_LEN
+2. Configure DMA Registers
+dma_addr = 32'h0000_0000; dma_len = 4, dma_dir = 1 (read)
+Write 32'h0000_0010 to DMA_CFG
+Write 32'h0000_0000 to DMA_ADDR
+Write 32'h0000_0004 to DMA_LEN
+3. Set cmd_trigger
+Write 32'h0000_0304 to CTRL
+4. Wait cmd_done=1 and read axi mem slave</t>
+  </si>
+  <si>
+    <t>1. Configure Command Registers
+opcode = 6B; addr = 24'h00_0000; dummy = 8
+cmd_lanes - addr_lanes - data_lanes = 1-1-4
+data_length = 65536 bytes; dir = 1 (read)
+Write 32'h0000_3060 to CMD_CFG
+Write 32'h0000_006B to CMD_OP
+Write 32'h0000_0000 to CMD_ADDR
+Write 32'h0001_0000 to CMD_LEN
+2. Configure DMA Registers
+dma_addr = 32'h0000_0000; dma_len = 65536, dma_dir = 1 (read)
+Write 32'h0000_0010 to DMA_CFG
+Write 32'h0000_0000 to DMA_ADDR
+Write 32'h0001_0000 to DMA_LEN
+3. Set cmd_trigger
+Write 32'h0000_0304 to CTRL
+4. Wait cmd_done=1 and read axi mem slave</t>
+  </si>
+  <si>
+    <t>1. Configure Command Registers
+opcode = EB; addr = 24'h00_0000; dummy = 6
+cmd_lanes - addr_lanes - data_lanes = 1-4-4
+data_length = 4 bytes; dir = 1 (read)
+Write 32'h0000_2C68 to CMD_CFG
+Write 32'h0000_00EB to CMD_OP
+Write 32'h0000_0000 to CMD_ADDR
+Write 32'h0000_0004 to CMD_LEN
+2. Configure DMA Registers
+dma_addr = 32'h0000_0000; dma_len = 4, dma_dir = 1 (read)
+Write 32'h0000_0010 to DMA_CFG
+Write 32'h0000_0000 to DMA_ADDR
+Write 32'h0000_0004 to DMA_LEN
+3. Set cmd_trigger
+Write 32'h0000_0304 to CTRL
+4. Wait cmd_done=1 and read axi mem slave</t>
+  </si>
+  <si>
+    <t>1. Configure Command Registers
+opcode = EB; addr = 24'h00_0000; dummy = 6
+cmd_lanes - addr_lanes - data_lanes = 1-4-4
+data_length = 65536 bytes; dir = 1 (read)
+Write 32'h0000_2C68 to CMD_CFG
+Write 32'h0000_00EB to CMD_OP
+Write 32'h0000_0000 to CMD_ADDR
+Write 32'h0001_0000 to CMD_LEN
+2. Configure DMA Registers
+dma_addr = 32'h0000_0000; dma_len = 65536, dma_dir = 1 (read)
+Write 32'h0000_0010 to DMA_CFG
+Write 32'h0000_0000 to DMA_ADDR
+Write 32'h0001_0000 to DMA_LEN
+3. Set cmd_trigger
+Write 32'h0000_0304 to CTRL
+4. Wait cmd_done=1 and read axi mem slave</t>
   </si>
 </sst>
 </file>
@@ -2160,8 +2414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0EC816-D694-487D-9E9E-4DB35F5FBDF2}">
   <dimension ref="A2:CT438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="34" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="34" workbookViewId="0">
+      <selection activeCell="J109" sqref="J109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2187,7 +2441,7 @@
       </c>
       <c r="D2" s="3">
         <f>SUM(D3:D4)</f>
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.35">
@@ -2196,7 +2450,7 @@
       </c>
       <c r="D3" s="3">
         <f>COUNTIF(L:L,"PASSED")</f>
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:98" x14ac:dyDescent="0.35">
@@ -2223,7 +2477,7 @@
       </c>
       <c r="D6" s="3">
         <f xml:space="preserve"> D3/D2*100</f>
-        <v>88.63636363636364</v>
+        <v>91.071428571428569</v>
       </c>
     </row>
     <row r="7" spans="1:98" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -8970,28 +9224,212 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="3:12" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
-    <row r="92" spans="3:12" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
-    <row r="93" spans="3:12" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
-    <row r="94" spans="3:12" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
-    <row r="95" spans="3:12" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
-    <row r="96" spans="3:12" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
-    <row r="97" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
-    <row r="98" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
-    <row r="99" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
-    <row r="100" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
-    <row r="101" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
-    <row r="102" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
-    <row r="103" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
-    <row r="104" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
-    <row r="105" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
-    <row r="106" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
-    <row r="107" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
-    <row r="108" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
-    <row r="109" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
-    <row r="110" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
-    <row r="111" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
-    <row r="112" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="3:12" s="30" customFormat="1" ht="238" x14ac:dyDescent="0.35">
+      <c r="C90" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="H90" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="J90" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="L90" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="3:12" ht="238" x14ac:dyDescent="0.35">
+      <c r="E91" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="K91" s="30"/>
+      <c r="L91" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" s="30" customFormat="1" ht="308" x14ac:dyDescent="0.35">
+      <c r="E92" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="H92" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="J92" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="L92" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" s="30" customFormat="1" ht="252" x14ac:dyDescent="0.35">
+      <c r="E93" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="H93" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J93" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="L93" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" s="30" customFormat="1" ht="235.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D94" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="I94" s="8"/>
+      <c r="J94" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" s="30" customFormat="1" ht="252" x14ac:dyDescent="0.35">
+      <c r="E95" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="H95" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="J95" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="L95" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="3:12" s="30" customFormat="1" ht="231.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D96" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E96" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="H96" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="J96" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="L96" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="4:12" s="30" customFormat="1" ht="238" x14ac:dyDescent="0.35">
+      <c r="E97" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="H97" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="J97" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="L97" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="4:12" s="30" customFormat="1" ht="235" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D98" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="I98" s="8"/>
+      <c r="J98" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="4:12" s="30" customFormat="1" ht="238" x14ac:dyDescent="0.35">
+      <c r="H99" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="J99" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="4:12" s="30" customFormat="1" ht="231.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D100" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="E100" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="H100" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="J100" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="L100" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="4:12" s="30" customFormat="1" ht="238" x14ac:dyDescent="0.35">
+      <c r="E101" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="H101" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="J101" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="L101" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="4:12" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
+    <row r="103" spans="4:12" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
+    <row r="104" spans="4:12" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
+    <row r="105" spans="4:12" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
+    <row r="106" spans="4:12" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
+    <row r="107" spans="4:12" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
+    <row r="108" spans="4:12" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
+    <row r="109" spans="4:12" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
+    <row r="110" spans="4:12" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
+    <row r="111" spans="4:12" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
+    <row r="112" spans="4:12" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
     <row r="113" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
     <row r="114" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
     <row r="115" s="30" customFormat="1" ht="14" x14ac:dyDescent="0.35"/>
